--- a/RetoLATAM.xlsx
+++ b/RetoLATAM.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="plan de pruebas" sheetId="1" r:id="rId1"/>
     <sheet name="Historia de U" sheetId="3" r:id="rId2"/>
+    <sheet name="PREGUNTAS" sheetId="5" r:id="rId3"/>
+    <sheet name="CASOS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>Información General</t>
   </si>
@@ -289,12 +291,172 @@
   <si>
     <t>técnicas de prueba caja negra, pruebas funcionles ( adecuación funcional)</t>
   </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Precondiciones</t>
+  </si>
+  <si>
+    <t>Datos de entrada</t>
+  </si>
+  <si>
+    <t>Pasos</t>
+  </si>
+  <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Resultado Obtenido</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Criterios finales</t>
+  </si>
+  <si>
+    <t>Por favor responda a las siguientes preguntas abiertas:</t>
+  </si>
+  <si>
+    <r>
+      <t>A.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>¿Cree usted que puede diseñar casos de prueba sin tener la aplicación? ¿por qué?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>¿Qué información o documentación considera importante para el inicio de las pruebas?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Contexto, especificación de requerimientos, historias de usuario, casos de pruebas </t>
+  </si>
+  <si>
+    <r>
+      <t>C.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>¿si la documentación no es clara usted que haría?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>¿Quién cree que es el responsable de que usted conozca el contexto de negocio y la aplicación a probar?</t>
+    </r>
+  </si>
+  <si>
+    <t>El analista, si no nos proporcionan la información o es incompleta debemos solicitar la información necesaria.</t>
+  </si>
+  <si>
+    <r>
+      <t>E.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>¿si entregara un informe de avance de sus pruebas que información relacionaría?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un reporte de los casos de pruebas ya finalizados, un análisis de lo que se ha realizado indicando un porcentaje del avance, inconvenientes hasta el momento y si existen inconvenientes a futuro </t>
+  </si>
+  <si>
+    <t>Cuando tenemos dudas la clave es preguntarle al cliente por medio de una reunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si es posible mediante los casos de uso o casos de pruebas, ya que se si tienen un entendimiento claro de los casos de pruebas no es necesario </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +501,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -361,8 +524,27 @@
       <name val="Tw Cen MT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +569,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F497D"/>
+        <bgColor rgb="FF1F497D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF366092"/>
+        <bgColor rgb="FF366092"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -714,6 +908,60 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -721,16 +969,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,15 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -755,12 +991,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -773,70 +1003,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -852,26 +1019,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -884,9 +1033,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -904,72 +1050,204 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1275,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:I26"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,181 +1567,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="25"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="89"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="25"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="25"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="86"/>
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="25"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
     </row>
     <row r="13" spans="1:9" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
@@ -1477,405 +1755,405 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="86"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="34">
         <v>2</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="34">
         <v>2</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="37">
         <v>4</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="88"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="35">
         <v>3</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="34">
         <v>2</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="36">
         <v>6</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="88"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="34">
         <v>3</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="34">
         <v>2</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="36">
         <v>6</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="90"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="61"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="61"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="93"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="86"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
     </row>
     <row r="24" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>3</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>2</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="39">
         <v>6</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="95"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>2</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="39">
         <v>6</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="95"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="96"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="84"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="42"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="61"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="61"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="61"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="61"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="51"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="61"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="28"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="82"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="66"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="82"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="66"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="61"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="28"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="64"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
@@ -1885,184 +2163,200 @@
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="51"/>
     </row>
     <row r="49" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="77" t="s">
+      <c r="A49" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="78"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="69"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="61"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="28"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="61"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="28"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="61"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="28"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="61"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="28"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="61"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="28"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="61"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="28"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="64"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="31"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="51"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="75" t="s">
+      <c r="A59" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="76"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="54"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
+      <c r="A60" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="59"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="57"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="59"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="57"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="62"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="64"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B21:H21"/>
     <mergeCell ref="A58:I58"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A60:I60"/>
@@ -2077,22 +2371,6 @@
     <mergeCell ref="A39:I40"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2104,137 +2382,137 @@
   <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="60"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="61"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="61"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="61"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="61"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="61"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="61"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="61"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2244,4 +2522,138 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:A17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="103" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="104" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="105" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="105" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="105"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="105" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="105" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="105" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="106" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="97" customFormat="1" ht="240.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>